--- a/Привоз.xlsx
+++ b/Привоз.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itiro\RiderProjects\zoomag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F642B82-4AF5-426C-A2E8-8A6515FC4B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C7565-A2FE-498A-AF7F-D074468E4FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="2370" windowWidth="21600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -27,28 +30,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve">Naim </t>
-  </si>
-  <si>
-    <t>IzmerId</t>
-  </si>
-  <si>
-    <t>Kol_vo</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>хлеб</t>
-  </si>
-  <si>
-    <t>конфеты</t>
-  </si>
-  <si>
-    <t>скумбрия</t>
-  </si>
-  <si>
-    <t>грудка</t>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Единица</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Корм</t>
+  </si>
+  <si>
+    <t>Суперкорм</t>
+  </si>
+  <si>
+    <t>пачка</t>
   </si>
 </sst>
 </file>
@@ -366,15 +369,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,61 +393,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Привоз.xlsx
+++ b/Привоз.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itiro\RiderProjects\zoomag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C7565-A2FE-498A-AF7F-D074468E4FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757AEBF3-97C1-40F5-BCB3-80005E46EAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>Цена</t>
   </si>
   <si>
-    <t>Корм</t>
-  </si>
-  <si>
     <t>Суперкорм</t>
   </si>
   <si>
-    <t>пачка</t>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>Корма</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>3</v>
